--- a/medicine/Enfance/Anaële_Hermans/Anaële_Hermans.xlsx
+++ b/medicine/Enfance/Anaële_Hermans/Anaële_Hermans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana%C3%ABle_Hermans</t>
+          <t>Anaële_Hermans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anaële Hermans, née le 2 novembre 1982 à La Louvière (province de Hainaut), est une scénariste de bande dessinée et romancière belge francophone.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana%C3%ABle_Hermans</t>
+          <t>Anaële_Hermans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anaële Hermans naît le 2 novembre 1982 à La Louvière[1]. Après des études de lettres, elle devient professeur de langue française[2],[3].
-Avec sa sœur Delphine, elle publie le one shot Les Amandes vertes, lettres de Palestine, dans la collection « Civilisation » aux parisiennes éditions Warum en 2011. Cet ouvrage reçoit le prix Médecins sans frontières au Rendez-vous du carnet de voyage de Clermont-Ferrand. En 2013, Anaële Hermans, romaniste de formation, Elle publie un premier roman Bananes sauce gombos inspiré de ses rencontres à Bruxelles ou lors de ses nombreux voyages à l’étranger publié aux éditions L'Harmattan en 2013[4].
-Les sœurs réalisent ensuite le roman graphique Avant d’oublier[5] chez le même éditeur en 2014, l’histoire d’une jeune fille qui, à la suite du décès de son grand-père, tente de se rapprocher de personnes issues de la même génération. Elle retrouve sa sœur pour le one shot La Ballade des dangereuses, journal d'une incarcération[6],[7], un témoignage sur une histoire vécue publié dans la collection « Contre-Cœur » aux éditions La Boîte à bulles. Cet ouvrage vaut à leurs autrices d'être récipiendaires du prix Atomium de Bruxelles 2018[8],[9].
-Elle écrit le scénario du one shot Ting Tang sap sap pour les dessinateurs Benjamin Vinck et Louise-Marie Colon[10],[11],[12], dans la collection « Hors Champ » aux éditions La Boîte à bulles en 2020.
-Le duo familial se reforme encore pour livrer Hayat : d'Alep à Bruxelles[13],[14] dans la même collection chez le même éditeur en 2023. Elle contribue également à la nouvelle mouture de Métal hurlant[15] dans le no 7 La Monstrueuse Parade de février 2023 avec le court récit Les Masques des Abysses illustré par Nadar[16].
-Certains de ses ouvrages sont traduits en anglais comme Green Almonds : Letters from Palestine[17] et en néerlandais comme Gevaarlijke dames, een ballade - Dagboek van een opsluiting publié aux éditions Scratch en 2020[18].
-Par ailleurs, elle anime un atelier d'écriture Écrire un scénario de roman graphique à la Maison de la Francité à Bruxelles de 2022 à 2023[19].
-Parallèlement, elle travaille dans une structure d'accueil des migrants à Bruxelles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaële Hermans naît le 2 novembre 1982 à La Louvière. Après des études de lettres, elle devient professeur de langue française,.
+Avec sa sœur Delphine, elle publie le one shot Les Amandes vertes, lettres de Palestine, dans la collection « Civilisation » aux parisiennes éditions Warum en 2011. Cet ouvrage reçoit le prix Médecins sans frontières au Rendez-vous du carnet de voyage de Clermont-Ferrand. En 2013, Anaële Hermans, romaniste de formation, Elle publie un premier roman Bananes sauce gombos inspiré de ses rencontres à Bruxelles ou lors de ses nombreux voyages à l’étranger publié aux éditions L'Harmattan en 2013.
+Les sœurs réalisent ensuite le roman graphique Avant d’oublier chez le même éditeur en 2014, l’histoire d’une jeune fille qui, à la suite du décès de son grand-père, tente de se rapprocher de personnes issues de la même génération. Elle retrouve sa sœur pour le one shot La Ballade des dangereuses, journal d'une incarcération un témoignage sur une histoire vécue publié dans la collection « Contre-Cœur » aux éditions La Boîte à bulles. Cet ouvrage vaut à leurs autrices d'être récipiendaires du prix Atomium de Bruxelles 2018,.
+Elle écrit le scénario du one shot Ting Tang sap sap pour les dessinateurs Benjamin Vinck et Louise-Marie Colon dans la collection « Hors Champ » aux éditions La Boîte à bulles en 2020.
+Le duo familial se reforme encore pour livrer Hayat : d'Alep à Bruxelles, dans la même collection chez le même éditeur en 2023. Elle contribue également à la nouvelle mouture de Métal hurlant dans le no 7 La Monstrueuse Parade de février 2023 avec le court récit Les Masques des Abysses illustré par Nadar.
+Certains de ses ouvrages sont traduits en anglais comme Green Almonds : Letters from Palestine et en néerlandais comme Gevaarlijke dames, een ballade - Dagboek van een opsluiting publié aux éditions Scratch en 2020.
+Par ailleurs, elle anime un atelier d'écriture Écrire un scénario de roman graphique à la Maison de la Francité à Bruxelles de 2022 à 2023.
+Parallèlement, elle travaille dans une structure d'accueil des migrants à Bruxelles.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana%C3%ABle_Hermans</t>
+          <t>Anaële_Hermans</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle demeure à Bruxelles.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana%C3%ABle_Hermans</t>
+          <t>Anaële_Hermans</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,18 +598,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publications
-Romans graphiques
-Les Amandes vertes - Lettres de Palestine, Warum, coll. « Civilisation », Paris, janvier 2011Scénario : Anaële Hermans - Dessin : Delphine Hermans - Couleurs : noir et blanc -  (ISBN 978-2-915920-58-1),Réédition en 2016.  (ISBN 978-2-365-35129-4)
-Avant d'oublier[5], Warum, Paris, 8 octobre 2014Scénario : Anaële Hermans - Dessin : Delphine Hermans - Couleurs : bichromie -  (ISBN 978-2-365-35051-8)
-La Ballade des dangereuses, journal d'une incarcération[8],[6],[20],[7], La Boîte à bulles, coll. « Contre-Cœur », Saint-Avertin, 7 mars 2018Scénario : Anaële Hermans - Dessin et couleurs : Delphine Hermans -  (ISBN 9782849532928)
-Ting Tang sap sap[10],[11],[12], La Boîte à bulles, coll. « Hors Champ », Saint-Avertin, 9 septembre 2020Scénario : Anaële Hermans - Dessin : Louise-Marie Colon, Benjamin Vinck - Couleurs : Louise-Marie Colon, Benjamin Vinck -  (ISBN 9782849532867)
-Hayat : d'Alep à Bruxelles[13],[14], La Boîte à bulles, coll. « Contre-Cœur », Saint-Avertin, 1 février 2023Scénario : Anaële Hermans - Dessin et couleurs : Delphine Hermans -  (ISBN 978-2-84953-440-3)
-Collectifs
-Métal hurlant
-7 La Monstrueuse Parade[15], Les Humanoïdes associés, Paris, 24 mai 2023Scénario : collectif dont Anaële Hermans - Dessin : collectif - Couleurs : quadrichromie -  (ISBN 978-2-7316-5843-9),Préface : Jerry Frissen.
-Romans
-Bananes sauce gombos, L'Harmattan, Paris, 2013  (ISBN 978-2-343-00030-5).</t>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans graphiques</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Amandes vertes - Lettres de Palestine, Warum, coll. « Civilisation », Paris, janvier 2011Scénario : Anaële Hermans - Dessin : Delphine Hermans - Couleurs : noir et blanc -  (ISBN 978-2-915920-58-1),Réédition en 2016.  (ISBN 978-2-365-35129-4)
+Avant d'oublier, Warum, Paris, 8 octobre 2014Scénario : Anaële Hermans - Dessin : Delphine Hermans - Couleurs : bichromie -  (ISBN 978-2-365-35051-8)
+La Ballade des dangereuses, journal d'une incarcération La Boîte à bulles, coll. « Contre-Cœur », Saint-Avertin, 7 mars 2018Scénario : Anaële Hermans - Dessin et couleurs : Delphine Hermans -  (ISBN 9782849532928)
+Ting Tang sap sap La Boîte à bulles, coll. « Hors Champ », Saint-Avertin, 9 septembre 2020Scénario : Anaële Hermans - Dessin : Louise-Marie Colon, Benjamin Vinck - Couleurs : Louise-Marie Colon, Benjamin Vinck -  (ISBN 9782849532867)
+Hayat : d'Alep à Bruxelles La Boîte à bulles, coll. « Contre-Cœur », Saint-Avertin, 1 février 2023Scénario : Anaële Hermans - Dessin et couleurs : Delphine Hermans -  (ISBN 978-2-84953-440-3)</t>
         </is>
       </c>
     </row>
@@ -603,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana%C3%ABle_Hermans</t>
+          <t>Anaële_Hermans</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,12 +637,95 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Métal hurlant
+7 La Monstrueuse Parade, Les Humanoïdes associés, Paris, 24 mai 2023Scénario : collectif dont Anaële Hermans - Dessin : collectif - Couleurs : quadrichromie -  (ISBN 978-2-7316-5843-9),Préface : Jerry Frissen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anaële_Hermans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana%C3%ABle_Hermans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bananes sauce gombos, L'Harmattan, Paris, 2013  (ISBN 978-2-343-00030-5).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anaële_Hermans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana%C3%ABle_Hermans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2018 : prix Atomium  de Bruxelles pour La Ballade des dangereuses, journal d'une incarcération partagé avec Delphine Hermans[8],[9].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2018 : prix Atomium  de Bruxelles pour La Ballade des dangereuses, journal d'une incarcération partagé avec Delphine Hermans,.</t>
         </is>
       </c>
     </row>
